--- a/xlsxanalize/scr/data/reports/13.07.17-14.07.17 (сутки) отчет Бар лесной .xlsx
+++ b/xlsxanalize/scr/data/reports/13.07.17-14.07.17 (сутки) отчет Бар лесной .xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\serg\projects\xlsxanalize\xlsxanalize\scr\data\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="13275" tabRatio="347"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18276" windowHeight="13272" tabRatio="347"/>
   </bookViews>
   <sheets>
     <sheet name="Бар" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -203,17 +208,17 @@
     <t>Лукьяненко</t>
   </si>
   <si>
-    <t>13.07.2017-13.07.2017 (24)</t>
+    <t>13.07.2017-13.07.2017 (12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1629,13 +1634,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1673,9 +1686,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1707,9 +1720,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1741,9 +1755,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1916,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1925,23 +1940,23 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1">
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1970,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="72" t="s">
         <v>54</v>
       </c>
@@ -1969,7 +1984,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1981,7 +1996,7 @@
       </c>
       <c r="I3" s="82"/>
     </row>
-    <row r="4" spans="2:10" ht="54" customHeight="1" thickBot="1">
+    <row r="4" spans="2:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -2006,7 +2021,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -2033,7 +2048,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2060,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="s">
         <v>30</v>
       </c>
@@ -2071,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="73" t="s">
         <v>55</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="48" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="48" t="s">
         <v>1</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="48" t="s">
         <v>2</v>
       </c>
@@ -2175,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="48" t="s">
         <v>26</v>
       </c>
@@ -2201,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
         <v>29</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="48" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="48" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="39"/>
       <c r="D18" s="30"/>
@@ -2341,7 +2356,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="48" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="s">
         <v>33</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="s">
         <v>28</v>
       </c>
@@ -2419,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="s">
         <v>32</v>
       </c>
@@ -2445,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="s">
         <v>8</v>
       </c>
@@ -2472,7 +2487,7 @@
       </c>
       <c r="J23" s="80"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="39"/>
       <c r="D24" s="30"/>
@@ -2482,7 +2497,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="48" t="s">
         <v>31</v>
       </c>
@@ -2508,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="48" t="s">
         <v>42</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="50"/>
       <c r="C27" s="40"/>
       <c r="D27" s="30"/>
@@ -2544,7 +2559,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="48" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="76" t="s">
         <v>56</v>
       </c>
@@ -2596,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="51" t="s">
         <v>43</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="52" t="s">
         <v>43</v>
       </c>
@@ -2648,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="52" t="s">
         <v>43</v>
       </c>
@@ -2674,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="51" t="s">
         <v>46</v>
       </c>
@@ -2700,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
@@ -2726,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="51" t="s">
         <v>48</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>50</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="43"/>
       <c r="D37" s="30"/>
@@ -2788,7 +2803,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="48" t="s">
         <v>39</v>
       </c>
@@ -2814,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="48" t="s">
         <v>23</v>
       </c>
@@ -2840,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="48" t="s">
         <v>53</v>
       </c>
@@ -2866,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="48" t="s">
         <v>58</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="48" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="48" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="48" t="s">
         <v>35</v>
       </c>
@@ -2970,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="48" t="s">
         <v>12</v>
       </c>
@@ -2996,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="43"/>
       <c r="D46" s="30"/>
@@ -3006,7 +3021,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="48" t="s">
         <v>13</v>
       </c>
@@ -3032,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="48" t="s">
         <v>40</v>
       </c>
@@ -3058,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="48" t="s">
         <v>37</v>
       </c>
@@ -3084,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="57" t="s">
         <v>52</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15.75" thickBot="1">
+    <row r="51" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="54" t="s">
         <v>14</v>
       </c>
@@ -3128,13 +3143,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I54" t="s">
         <v>36</v>
       </c>
@@ -3162,12 +3177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
